--- a/wikipedia_validation_sheets/Upper respiratory tract infection DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Upper respiratory tract infection DISNET VALIDATION.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{378AEA9B-7BF4-FD44-A189-027F38231C7F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0CE956-A471-C84E-B666-BD92F9486867}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39440" yWindow="460" windowWidth="20500" windowHeight="17440" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7480" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="119">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -367,6 +373,21 @@
   </si>
   <si>
     <t>FPREAL</t>
+  </si>
+  <si>
+    <t>pathophysiology</t>
+  </si>
+  <si>
+    <t>Functional disorder</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>complications</t>
+  </si>
+  <si>
+    <t>Complication</t>
   </si>
 </sst>
 </file>
@@ -702,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -770,6 +791,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -816,7 +840,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1137,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF501930-A237-4EA3-A3D6-166E67897307}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1155,43 +1189,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="37" t="s">
+      <c r="C2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -2553,35 +2587,105 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="26"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="28"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="24" t="s">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="26"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="28"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="25" t="s">
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="25" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2591,7 +2695,10 @@
     <mergeCell ref="F2:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C50">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51:C52">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
